--- a/school mockup data/KMUTNB - new/form_student_1-1.xlsx
+++ b/school mockup data/KMUTNB - new/form_student_1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\school mockup data\KMUTNB - new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB629F6-C3C6-437B-B9BA-CEFC51017153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DDCC4-56C0-4B51-B6F8-C87271D63A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1980" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
     <t>another david child</t>
   </si>
   <si>
-    <t>ปั๊มเอสโซ่ บจก.อินเจคชั่น มอเตอร์ ออยล์ 51 หมู่ที่ 7 ถนน รัตนาธิเบศร์ ตำบล เสาธงหิน อำเภอบางใหญ่ นนทบุรี 11140</t>
+    <t>ห้างหุ้นส่วนจำกัด ปั้นกาญจนโต เซอร์วิส 108/249 หมู่ที่ 4, ถนนรัตนาธิเบศร์, ตำบลบางรักพัฒนา อำเภอบางบัวทอง จังหวัดนนทบุรี, 11110</t>
   </si>
 </sst>
 </file>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
